--- a/xlsx/Z战斗-dynames.xlsx
+++ b/xlsx/Z战斗-dynames.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\ptolemaios\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ptolemaios\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B639EC-887D-4730-97A4-06D2E14A1029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FDD787-70CF-403F-8690-211D98EDE850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="战斗单位-dynames_unit" sheetId="1" r:id="rId1"/>
+    <sheet name="战斗单位-unit" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
